--- a/src/test/resources/createadsinvalid.xlsx
+++ b/src/test/resources/createadsinvalid.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="5832"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16540" windowHeight="5830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,34 +448,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="R6" sqref="A1:R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
-    <col min="14" max="14" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18.36328125" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -524,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -577,7 +581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -615,7 +619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -653,7 +657,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -667,18 +670,18 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" ht="25.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
